--- a/data/trans_orig/MCS12_SP_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75C80D20-34AD-4D22-98F1-96CB54C13C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4329A4C7-24ED-4DE2-ADC2-A0C7C4800E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C4A4083-8249-4E30-BCA6-846B03CEEA8E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ABC22C56-A191-4C29-9ACE-4C34982CB3D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="524">
   <si>
     <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1531 +77,1522 @@
     <t>19,96%</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
   </si>
   <si>
     <t>18,17%</t>
   </si>
   <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>Cuartil 3</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>Cuartil 2</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>Cuartil 1</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
     <t>16,09%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>17,41%</t>
   </si>
   <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>Cuartil 3</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>Cuartil 2</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>Cuartil 1</t>
-  </si>
-  <si>
-    <t>27,09%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
   </si>
   <si>
     <t>24,55%</t>
   </si>
   <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
   </si>
   <si>
     <t>23,31%</t>
   </si>
   <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
     <t>19,87%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
   </si>
   <si>
     <t>21,5%</t>
@@ -2031,7 +2022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522CBFAD-16AF-4662-898E-DF402592E323}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C572CA64-CDF5-4377-B9A2-161F5603B1C7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2188,16 +2179,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>287</v>
@@ -2206,13 +2197,13 @@
         <v>284064</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>338</v>
@@ -2221,13 +2212,13 @@
         <v>339120</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>625</v>
@@ -2236,19 +2227,19 @@
         <v>623184</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>267</v>
@@ -2257,13 +2248,13 @@
         <v>262168</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>303</v>
@@ -2272,13 +2263,13 @@
         <v>307297</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>570</v>
@@ -2287,19 +2278,19 @@
         <v>569465</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>274</v>
@@ -2308,13 +2299,13 @@
         <v>279537</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>417</v>
@@ -2323,13 +2314,13 @@
         <v>429714</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>691</v>
@@ -2338,13 +2329,13 @@
         <v>709251</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2350,13 @@
         <v>1031723</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>1291</v>
@@ -2374,13 +2365,13 @@
         <v>1315113</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>2329</v>
@@ -2389,18 +2380,18 @@
         <v>2346836</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2409,13 +2400,13 @@
         <v>415</v>
       </c>
       <c r="D9" s="7">
-        <v>424754</v>
+        <v>424755</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>53</v>
@@ -2454,7 +2445,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
         <v>597</v>
@@ -2499,13 +2490,13 @@
         <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>397</v>
@@ -2514,13 +2505,13 @@
         <v>411644</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>466</v>
@@ -2529,13 +2520,13 @@
         <v>477126</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>863</v>
@@ -2544,19 +2535,19 @@
         <v>888770</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>240</v>
@@ -2565,13 +2556,13 @@
         <v>246428</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>354</v>
@@ -2580,13 +2571,13 @@
         <v>363415</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>594</v>
@@ -2595,13 +2586,13 @@
         <v>609843</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,16 +2604,16 @@
         <v>1649</v>
       </c>
       <c r="D13" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>1554</v>
@@ -2631,13 +2622,13 @@
         <v>1587673</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>3203</v>
@@ -2646,18 +2637,18 @@
         <v>3281086</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2669,13 +2660,13 @@
         <v>144723</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>69</v>
@@ -2684,13 +2675,13 @@
         <v>73189</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>209</v>
@@ -2699,19 +2690,19 @@
         <v>217912</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>183</v>
@@ -2720,10 +2711,10 @@
         <v>190349</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>96</v>
@@ -2738,10 +2729,10 @@
         <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>324</v>
@@ -2750,19 +2741,19 @@
         <v>340226</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>123</v>
@@ -2771,13 +2762,13 @@
         <v>131761</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>145</v>
@@ -2786,13 +2777,13 @@
         <v>149338</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="M16" s="7">
         <v>268</v>
@@ -2801,10 +2792,10 @@
         <v>281100</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>109</v>
@@ -2813,7 +2804,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>81</v>
@@ -2873,13 +2864,13 @@
         <v>551408</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>452</v>
@@ -2888,13 +2879,13 @@
         <v>476412</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>979</v>
@@ -2903,13 +2894,13 @@
         <v>1027820</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,22 +2959,22 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>1067</v>
       </c>
       <c r="D20" s="7">
-        <v>1085000</v>
+        <v>1084999</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>128</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H20" s="7">
         <v>987</v>
@@ -2992,13 +2983,13 @@
         <v>1006941</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>2054</v>
@@ -3007,34 +2998,34 @@
         <v>2091941</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>787</v>
       </c>
       <c r="D21" s="7">
-        <v>805574</v>
+        <v>805573</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="H21" s="7">
         <v>914</v>
@@ -3043,13 +3034,13 @@
         <v>933761</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>1701</v>
@@ -3058,19 +3049,19 @@
         <v>1739334</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>595</v>
@@ -3079,13 +3070,13 @@
         <v>610539</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H22" s="7">
         <v>868</v>
@@ -3094,7 +3085,7 @@
         <v>897137</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>147</v>
@@ -3127,16 +3118,16 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>3297</v>
@@ -3145,13 +3136,13 @@
         <v>3379198</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>6511</v>
@@ -3160,13 +3151,13 @@
         <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,7 +3181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F235C13E-F34E-43F8-8F60-972B62DC781E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AC738F-7CD8-458C-BA90-BDB6FA422238}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3320,7 +3311,7 @@
         <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="H4" s="7">
         <v>238</v>
@@ -3329,13 +3320,13 @@
         <v>254963</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>467</v>
@@ -3344,19 +3335,19 @@
         <v>500519</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>182</v>
@@ -3365,13 +3356,13 @@
         <v>197759</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>169</v>
@@ -3380,13 +3371,13 @@
         <v>183873</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>351</v>
@@ -3395,19 +3386,19 @@
         <v>381632</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>232</v>
@@ -3416,13 +3407,13 @@
         <v>241393</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H6" s="7">
         <v>341</v>
@@ -3431,13 +3422,13 @@
         <v>364353</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>573</v>
@@ -3446,19 +3437,19 @@
         <v>605746</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>265</v>
@@ -3467,13 +3458,13 @@
         <v>289935</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>499</v>
@@ -3482,13 +3473,13 @@
         <v>534607</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>764</v>
@@ -3497,13 +3488,13 @@
         <v>824543</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3509,13 @@
         <v>974643</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>1247</v>
@@ -3533,13 +3524,13 @@
         <v>1337796</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>2155</v>
@@ -3548,18 +3539,18 @@
         <v>2312440</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3571,13 +3562,13 @@
         <v>595993</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H9" s="7">
         <v>363</v>
@@ -3586,13 +3577,13 @@
         <v>392454</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
         <v>924</v>
@@ -3601,19 +3592,19 @@
         <v>988448</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
         <v>418</v>
@@ -3622,13 +3613,13 @@
         <v>441513</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
         <v>300</v>
@@ -3637,13 +3628,13 @@
         <v>316279</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>718</v>
@@ -3652,19 +3643,19 @@
         <v>757792</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>489</v>
@@ -3673,13 +3664,13 @@
         <v>517391</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>484</v>
@@ -3688,13 +3679,13 @@
         <v>518713</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>973</v>
@@ -3703,19 +3694,19 @@
         <v>1036104</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>388</v>
@@ -3724,13 +3715,13 @@
         <v>409060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="H12" s="7">
         <v>488</v>
@@ -3739,13 +3730,13 @@
         <v>530357</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M12" s="7">
         <v>876</v>
@@ -3754,13 +3745,13 @@
         <v>939417</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3766,13 @@
         <v>1963957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>1635</v>
@@ -3790,13 +3781,13 @@
         <v>1757803</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>3491</v>
@@ -3805,18 +3796,18 @@
         <v>3721760</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3828,13 +3819,13 @@
         <v>153775</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>109</v>
@@ -3843,13 +3834,13 @@
         <v>123847</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>253</v>
@@ -3858,19 +3849,19 @@
         <v>277623</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>104</v>
@@ -3879,13 +3870,13 @@
         <v>110938</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H15" s="7">
         <v>81</v>
@@ -3894,13 +3885,13 @@
         <v>85569</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="M15" s="7">
         <v>185</v>
@@ -3921,7 +3912,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>136</v>
@@ -3960,19 +3951,19 @@
         <v>309573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>54</v>
@@ -3981,13 +3972,13 @@
         <v>61491</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>55</v>
+        <v>245</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>82</v>
@@ -3996,13 +3987,13 @@
         <v>94619</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>136</v>
@@ -4011,13 +4002,13 @@
         <v>156110</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4023,13 @@
         <v>481181</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>412</v>
@@ -4047,13 +4038,13 @@
         <v>458631</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>850</v>
@@ -4062,13 +4053,13 @@
         <v>939812</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4076,13 @@
         <v>995325</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H19" s="7">
         <v>710</v>
@@ -4100,13 +4091,13 @@
         <v>771265</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>1644</v>
@@ -4115,19 +4106,19 @@
         <v>1766590</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>704</v>
@@ -4136,13 +4127,13 @@
         <v>750210</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>550</v>
@@ -4151,13 +4142,13 @@
         <v>585720</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>1254</v>
@@ -4166,19 +4157,19 @@
         <v>1335930</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>857</v>
@@ -4187,13 +4178,13 @@
         <v>913761</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H21" s="7">
         <v>965</v>
@@ -4202,13 +4193,13 @@
         <v>1037661</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M21" s="7">
         <v>1822</v>
@@ -4217,19 +4208,19 @@
         <v>1951423</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>707</v>
@@ -4238,13 +4229,13 @@
         <v>760486</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>278</v>
+        <v>118</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H22" s="7">
         <v>1069</v>
@@ -4253,13 +4244,13 @@
         <v>1159583</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>280</v>
+        <v>67</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M22" s="7">
         <v>1776</v>
@@ -4268,13 +4259,13 @@
         <v>1920069</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4280,13 @@
         <v>3419782</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>3294</v>
@@ -4304,13 +4295,13 @@
         <v>3554230</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>6496</v>
@@ -4319,13 +4310,13 @@
         <v>6974012</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,7 +4340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC4DD06-ACB5-42D6-B0BE-53F620D5BBFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931F1A09-E132-4D08-86B2-2491BEACC17F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4366,7 +4357,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4473,10 +4464,10 @@
         <v>182786</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>287</v>
+        <v>92</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>288</v>
@@ -4503,19 +4494,19 @@
         <v>403596</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>138</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>149</v>
@@ -4524,13 +4515,13 @@
         <v>146304</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
         <v>144</v>
@@ -4539,13 +4530,13 @@
         <v>160057</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>15</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>293</v>
@@ -4554,19 +4545,19 @@
         <v>306362</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>230</v>
@@ -4575,13 +4566,13 @@
         <v>228238</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H6" s="7">
         <v>208</v>
@@ -4590,13 +4581,13 @@
         <v>228667</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>305</v>
+        <v>164</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M6" s="7">
         <v>438</v>
@@ -4605,19 +4596,19 @@
         <v>456905</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>202</v>
@@ -4626,10 +4617,10 @@
         <v>197019</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>312</v>
@@ -4677,13 +4668,13 @@
         <v>754347</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>892</v>
@@ -4692,13 +4683,13 @@
         <v>994660</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>1654</v>
@@ -4707,18 +4698,18 @@
         <v>1749007</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4760,19 +4751,19 @@
         <v>1131846</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>325</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
         <v>474</v>
@@ -4781,13 +4772,13 @@
         <v>503339</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H10" s="7">
         <v>416</v>
@@ -4796,13 +4787,13 @@
         <v>428877</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M10" s="7">
         <v>890</v>
@@ -4811,19 +4802,19 @@
         <v>932216</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>330</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>565</v>
@@ -4847,13 +4838,13 @@
         <v>594650</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M11" s="7">
         <v>1142</v>
@@ -4862,19 +4853,19 @@
         <v>1193344</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>333</v>
@@ -4883,13 +4874,13 @@
         <v>356376</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H12" s="7">
         <v>424</v>
@@ -4898,13 +4889,13 @@
         <v>450903</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M12" s="7">
         <v>757</v>
@@ -4919,7 +4910,7 @@
         <v>349</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>350</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4925,13 @@
         <v>2076385</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>1908</v>
@@ -4949,13 +4940,13 @@
         <v>1988300</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>3860</v>
@@ -4964,18 +4955,18 @@
         <v>4064685</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4987,13 +4978,13 @@
         <v>155258</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H14" s="7">
         <v>128</v>
@@ -5002,13 +4993,13 @@
         <v>135721</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>269</v>
@@ -5017,19 +5008,19 @@
         <v>290979</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>357</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>137</v>
@@ -5038,13 +5029,13 @@
         <v>147044</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>361</v>
+        <v>282</v>
       </c>
       <c r="H15" s="7">
         <v>130</v>
@@ -5053,13 +5044,13 @@
         <v>135337</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>193</v>
+        <v>359</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M15" s="7">
         <v>267</v>
@@ -5068,19 +5059,19 @@
         <v>282380</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>147</v>
@@ -5089,13 +5080,13 @@
         <v>160259</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>162</v>
@@ -5104,13 +5095,13 @@
         <v>168531</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>369</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M16" s="7">
         <v>309</v>
@@ -5119,19 +5110,19 @@
         <v>328790</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>76</v>
@@ -5140,13 +5131,13 @@
         <v>84326</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H17" s="7">
         <v>106</v>
@@ -5155,13 +5146,13 @@
         <v>109551</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M17" s="7">
         <v>182</v>
@@ -5170,13 +5161,13 @@
         <v>193877</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>381</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5182,13 @@
         <v>546886</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>526</v>
@@ -5206,13 +5197,13 @@
         <v>549140</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>1027</v>
@@ -5221,13 +5212,13 @@
         <v>1096026</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5235,13 @@
         <v>956020</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H19" s="7">
         <v>813</v>
@@ -5259,13 +5250,13 @@
         <v>870401</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="M19" s="7">
         <v>1715</v>
@@ -5274,19 +5265,19 @@
         <v>1826421</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>283</v>
+        <v>384</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>387</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>760</v>
@@ -5295,13 +5286,13 @@
         <v>796688</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>390</v>
+        <v>289</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H20" s="7">
         <v>690</v>
@@ -5310,13 +5301,13 @@
         <v>724271</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M20" s="7">
         <v>1450</v>
@@ -5325,19 +5316,19 @@
         <v>1520958</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>942</v>
@@ -5346,13 +5337,13 @@
         <v>987190</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H21" s="7">
         <v>947</v>
@@ -5361,13 +5352,13 @@
         <v>991848</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>156</v>
+        <v>396</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M21" s="7">
         <v>1889</v>
@@ -5376,19 +5367,19 @@
         <v>1979038</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>404</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>611</v>
@@ -5397,13 +5388,13 @@
         <v>637720</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H22" s="7">
         <v>876</v>
@@ -5412,13 +5403,13 @@
         <v>945580</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="M22" s="7">
         <v>1487</v>
@@ -5427,13 +5418,13 @@
         <v>1583300</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>311</v>
+        <v>406</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5439,13 @@
         <v>3377618</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>3326</v>
@@ -5463,13 +5454,13 @@
         <v>3532100</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>6541</v>
@@ -5478,13 +5469,13 @@
         <v>6909718</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,7 +5499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610B4C01-D56E-45CC-95F5-1CBD6B3006A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DCD88D-BFDF-457A-9229-D46EE7BE5A96}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5525,7 +5516,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5632,13 +5623,13 @@
         <v>137048</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H4" s="7">
         <v>299</v>
@@ -5647,13 +5638,13 @@
         <v>180026</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>417</v>
+        <v>172</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="M4" s="7">
         <v>473</v>
@@ -5662,19 +5653,19 @@
         <v>317075</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>158</v>
@@ -5683,13 +5674,13 @@
         <v>119837</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>296</v>
+        <v>418</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H5" s="7">
         <v>235</v>
@@ -5698,13 +5689,13 @@
         <v>127836</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="M5" s="7">
         <v>393</v>
@@ -5713,19 +5704,19 @@
         <v>247673</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>157</v>
@@ -5734,13 +5725,13 @@
         <v>127377</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H6" s="7">
         <v>321</v>
@@ -5749,13 +5740,13 @@
         <v>184116</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>296</v>
+        <v>418</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>42</v>
+        <v>429</v>
       </c>
       <c r="M6" s="7">
         <v>478</v>
@@ -5764,19 +5755,19 @@
         <v>311493</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>347</v>
+        <v>431</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>196</v>
@@ -5785,13 +5776,13 @@
         <v>152626</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H7" s="7">
         <v>552</v>
@@ -5800,13 +5791,13 @@
         <v>333064</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M7" s="7">
         <v>748</v>
@@ -5815,13 +5806,13 @@
         <v>485690</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5827,13 @@
         <v>536887</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>1407</v>
@@ -5851,13 +5842,13 @@
         <v>825043</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>2092</v>
@@ -5866,18 +5857,18 @@
         <v>1361930</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5889,13 +5880,13 @@
         <v>731051</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H9" s="7">
         <v>762</v>
@@ -5904,13 +5895,13 @@
         <v>607663</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="M9" s="7">
         <v>1385</v>
@@ -5919,19 +5910,19 @@
         <v>1338714</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
         <v>496</v>
@@ -5940,13 +5931,13 @@
         <v>579256</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="H10" s="7">
         <v>693</v>
@@ -5955,10 +5946,10 @@
         <v>513523</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>331</v>
+        <v>451</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>154</v>
@@ -5970,19 +5961,19 @@
         <v>1092779</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>449</v>
@@ -5991,13 +5982,13 @@
         <v>456439</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="H11" s="7">
         <v>680</v>
@@ -6006,13 +5997,13 @@
         <v>493734</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>459</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>1129</v>
@@ -6021,19 +6012,19 @@
         <v>950174</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>415</v>
@@ -6042,13 +6033,13 @@
         <v>385986</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>122</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>464</v>
+        <v>202</v>
       </c>
       <c r="H12" s="7">
         <v>776</v>
@@ -6057,13 +6048,13 @@
         <v>628349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M12" s="7">
         <v>1191</v>
@@ -6072,13 +6063,13 @@
         <v>1014335</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>404</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,13 +6084,13 @@
         <v>2152732</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>2911</v>
@@ -6108,13 +6099,13 @@
         <v>2243270</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>4894</v>
@@ -6123,18 +6114,18 @@
         <v>4396002</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6146,13 +6137,13 @@
         <v>216237</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>469</v>
+        <v>47</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H14" s="7">
         <v>255</v>
@@ -6161,13 +6152,13 @@
         <v>194613</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M14" s="7">
         <v>458</v>
@@ -6176,19 +6167,19 @@
         <v>410850</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>475</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>177</v>
@@ -6197,13 +6188,13 @@
         <v>179572</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H15" s="7">
         <v>246</v>
@@ -6212,13 +6203,13 @@
         <v>172934</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="M15" s="7">
         <v>423</v>
@@ -6227,19 +6218,19 @@
         <v>352505</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>161</v>
@@ -6248,13 +6239,13 @@
         <v>145721</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H16" s="7">
         <v>250</v>
@@ -6263,13 +6254,13 @@
         <v>174532</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>484</v>
       </c>
       <c r="M16" s="7">
         <v>411</v>
@@ -6278,19 +6269,19 @@
         <v>320253</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>488</v>
+        <v>383</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>138</v>
@@ -6299,13 +6290,13 @@
         <v>129188</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>15</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H17" s="7">
         <v>250</v>
@@ -6314,13 +6305,13 @@
         <v>168570</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>151</v>
+        <v>489</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M17" s="7">
         <v>388</v>
@@ -6329,10 +6320,10 @@
         <v>297757</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>493</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>323</v>
@@ -6350,13 +6341,13 @@
         <v>670718</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>1001</v>
@@ -6365,13 +6356,13 @@
         <v>710648</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>1680</v>
@@ -6380,13 +6371,13 @@
         <v>1381366</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6403,13 +6394,13 @@
         <v>1084336</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="H19" s="7">
         <v>1316</v>
@@ -6418,13 +6409,13 @@
         <v>982302</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>2316</v>
@@ -6433,19 +6424,19 @@
         <v>2066639</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>831</v>
@@ -6454,13 +6445,13 @@
         <v>878664</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>504</v>
+        <v>139</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H20" s="7">
         <v>1174</v>
@@ -6469,13 +6460,13 @@
         <v>814293</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>393</v>
+        <v>505</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M20" s="7">
         <v>2005</v>
@@ -6484,19 +6475,19 @@
         <v>1692957</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>510</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>767</v>
@@ -6505,13 +6496,13 @@
         <v>729537</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>514</v>
+        <v>358</v>
       </c>
       <c r="H21" s="7">
         <v>1251</v>
@@ -6520,13 +6511,13 @@
         <v>852383</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>306</v>
+        <v>512</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M21" s="7">
         <v>2018</v>
@@ -6535,19 +6526,19 @@
         <v>1581920</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>261</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>749</v>
@@ -6556,13 +6547,13 @@
         <v>667799</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H22" s="7">
         <v>1578</v>
@@ -6571,13 +6562,13 @@
         <v>1129983</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M22" s="7">
         <v>2327</v>
@@ -6586,13 +6577,13 @@
         <v>1797782</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,13 +6598,13 @@
         <v>3360337</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>5319</v>
@@ -6622,13 +6613,13 @@
         <v>3778960</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>8666</v>
@@ -6637,13 +6628,13 @@
         <v>7139298</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/MCS12_SP_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4329A4C7-24ED-4DE2-ADC2-A0C7C4800E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{570F8A2D-2657-48D9-B57C-A52147FDA7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ABC22C56-A191-4C29-9ACE-4C34982CB3D2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0B7CAA58-2E4D-4F81-A885-92B9359ACE1A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="518">
   <si>
     <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,24 +77,27 @@
     <t>19,96%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>18,17%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
   </si>
   <si>
     <t>18,96%</t>
   </si>
   <si>
+    <t>17,36%</t>
+  </si>
+  <si>
     <t>20,62%</t>
   </si>
   <si>
@@ -104,1513 +107,1492 @@
     <t>27,53%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
   </si>
   <si>
     <t>26,55%</t>
   </si>
   <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>Cuartil 2</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>Cuartil 1</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
     <t>24,75%</t>
   </si>
   <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>Cuartil 2</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
   </si>
   <si>
     <t>21,14%</t>
   </si>
   <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>Cuartil 1</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
   </si>
   <si>
     <t>27,48%</t>
   </si>
   <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>26,15%</t>
   </si>
   <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
   </si>
   <si>
     <t>25,18%</t>
   </si>
   <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
   </si>
 </sst>
 </file>
@@ -2022,7 +2004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C572CA64-CDF5-4377-B9A2-161F5603B1C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10EBACC-7DFA-4272-8F45-CB1942F97415}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2179,16 +2161,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>287</v>
@@ -2197,13 +2179,13 @@
         <v>284064</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>338</v>
@@ -2212,13 +2194,13 @@
         <v>339120</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>625</v>
@@ -2227,19 +2209,19 @@
         <v>623184</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>267</v>
@@ -2248,13 +2230,13 @@
         <v>262168</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>303</v>
@@ -2263,13 +2245,13 @@
         <v>307297</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>570</v>
@@ -2278,19 +2260,19 @@
         <v>569465</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>274</v>
@@ -2299,13 +2281,13 @@
         <v>279537</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>417</v>
@@ -2314,13 +2296,13 @@
         <v>429714</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>691</v>
@@ -2329,7 +2311,7 @@
         <v>709251</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>47</v>
@@ -2400,7 +2382,7 @@
         <v>415</v>
       </c>
       <c r="D9" s="7">
-        <v>424755</v>
+        <v>424754</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2445,7 +2427,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>597</v>
@@ -2487,16 +2469,16 @@
         <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>397</v>
@@ -2535,7 +2517,7 @@
         <v>888770</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>74</v>
@@ -2547,7 +2529,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>240</v>
@@ -2604,7 +2586,7 @@
         <v>1649</v>
       </c>
       <c r="D13" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
@@ -2693,16 +2675,16 @@
         <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>183</v>
@@ -2711,10 +2693,10 @@
         <v>190349</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>96</v>
@@ -2747,13 +2729,13 @@
         <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>123</v>
@@ -2762,13 +2744,13 @@
         <v>131761</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>145</v>
@@ -2777,13 +2759,13 @@
         <v>149338</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M16" s="7">
         <v>268</v>
@@ -2795,7 +2777,7 @@
         <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>109</v>
@@ -2804,7 +2786,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>81</v>
@@ -2923,7 +2905,7 @@
         <v>120</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="H19" s="7">
         <v>528</v>
@@ -2932,13 +2914,13 @@
         <v>541358</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M19" s="7">
         <v>1293</v>
@@ -2947,31 +2929,31 @@
         <v>1316789</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>1067</v>
       </c>
       <c r="D20" s="7">
-        <v>1084999</v>
+        <v>1085000</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>129</v>
@@ -2989,43 +2971,43 @@
         <v>131</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>2054</v>
       </c>
       <c r="N20" s="7">
-        <v>2091941</v>
+        <v>2091940</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>787</v>
       </c>
       <c r="D21" s="7">
-        <v>805573</v>
+        <v>805574</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H21" s="7">
         <v>914</v>
@@ -3034,13 +3016,13 @@
         <v>933761</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>1701</v>
@@ -3049,19 +3031,19 @@
         <v>1739334</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>595</v>
@@ -3070,13 +3052,13 @@
         <v>610539</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="H22" s="7">
         <v>868</v>
@@ -3085,28 +3067,28 @@
         <v>897137</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>1463</v>
       </c>
       <c r="N22" s="7">
-        <v>1507677</v>
+        <v>1507676</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,7 +3100,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -3148,7 +3130,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
@@ -3162,7 +3144,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3181,7 +3163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AC738F-7CD8-458C-BA90-BDB6FA422238}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93B33AC-0CBD-4F2A-83B5-027F49E9D6C8}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3198,7 +3180,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3305,13 +3287,13 @@
         <v>245556</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="H4" s="7">
         <v>238</v>
@@ -3320,13 +3302,13 @@
         <v>254963</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M4" s="7">
         <v>467</v>
@@ -3335,19 +3317,19 @@
         <v>500519</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>182</v>
@@ -3356,13 +3338,13 @@
         <v>197759</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H5" s="7">
         <v>169</v>
@@ -3371,13 +3353,13 @@
         <v>183873</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7">
         <v>351</v>
@@ -3386,19 +3368,19 @@
         <v>381632</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>232</v>
@@ -3407,13 +3389,13 @@
         <v>241393</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H6" s="7">
         <v>341</v>
@@ -3422,13 +3404,13 @@
         <v>364353</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M6" s="7">
         <v>573</v>
@@ -3437,19 +3419,19 @@
         <v>605746</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>265</v>
@@ -3458,13 +3440,13 @@
         <v>289935</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>499</v>
@@ -3473,13 +3455,13 @@
         <v>534607</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>764</v>
@@ -3488,13 +3470,13 @@
         <v>824543</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3544,13 @@
         <v>595993</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H9" s="7">
         <v>363</v>
@@ -3577,13 +3559,13 @@
         <v>392454</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M9" s="7">
         <v>924</v>
@@ -3592,19 +3574,19 @@
         <v>988448</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>418</v>
@@ -3613,13 +3595,13 @@
         <v>441513</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>300</v>
@@ -3628,13 +3610,13 @@
         <v>316279</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>718</v>
@@ -3643,19 +3625,19 @@
         <v>757792</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>489</v>
@@ -3664,13 +3646,13 @@
         <v>517391</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>484</v>
@@ -3679,13 +3661,13 @@
         <v>518713</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>973</v>
@@ -3694,19 +3676,19 @@
         <v>1036104</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>388</v>
@@ -3715,13 +3697,13 @@
         <v>409060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="H12" s="7">
         <v>488</v>
@@ -3730,13 +3712,13 @@
         <v>530357</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M12" s="7">
         <v>876</v>
@@ -3745,10 +3727,10 @@
         <v>939417</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>218</v>
@@ -3861,7 +3843,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>104</v>
@@ -3891,7 +3873,7 @@
         <v>232</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="M15" s="7">
         <v>185</v>
@@ -3900,10 +3882,10 @@
         <v>196507</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>235</v>
@@ -3912,7 +3894,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>136</v>
@@ -3924,10 +3906,10 @@
         <v>236</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H16" s="7">
         <v>140</v>
@@ -3936,13 +3918,13 @@
         <v>154596</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M16" s="7">
         <v>276</v>
@@ -3951,19 +3933,19 @@
         <v>309573</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>54</v>
@@ -3972,13 +3954,13 @@
         <v>61491</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>82</v>
@@ -3987,13 +3969,13 @@
         <v>94619</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>136</v>
@@ -4002,13 +3984,13 @@
         <v>156110</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4058,13 @@
         <v>995325</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H19" s="7">
         <v>710</v>
@@ -4091,13 +4073,13 @@
         <v>771265</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>1644</v>
@@ -4106,19 +4088,19 @@
         <v>1766590</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>704</v>
@@ -4127,13 +4109,13 @@
         <v>750210</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>550</v>
@@ -4142,13 +4124,13 @@
         <v>585720</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>1254</v>
@@ -4157,19 +4139,19 @@
         <v>1335930</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>857</v>
@@ -4178,13 +4160,13 @@
         <v>913761</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H21" s="7">
         <v>965</v>
@@ -4193,13 +4175,13 @@
         <v>1037661</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M21" s="7">
         <v>1822</v>
@@ -4208,19 +4190,19 @@
         <v>1951423</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>707</v>
@@ -4229,10 +4211,10 @@
         <v>760486</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>281</v>
@@ -4244,13 +4226,13 @@
         <v>1159583</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>67</v>
+        <v>282</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M22" s="7">
         <v>1776</v>
@@ -4259,13 +4241,13 @@
         <v>1920069</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,7 +4303,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4340,7 +4322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931F1A09-E132-4D08-86B2-2491BEACC17F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD42A1C-8211-411D-BA6D-DF7A3C5A93B3}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4357,7 +4339,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4464,13 +4446,13 @@
         <v>182786</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>92</v>
+        <v>289</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>194</v>
@@ -4479,13 +4461,13 @@
         <v>220810</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M4" s="7">
         <v>375</v>
@@ -4494,19 +4476,19 @@
         <v>403596</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>149</v>
@@ -4515,13 +4497,13 @@
         <v>146304</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="H5" s="7">
         <v>144</v>
@@ -4530,7 +4512,7 @@
         <v>160057</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>298</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>299</v>
@@ -4557,7 +4539,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>230</v>
@@ -4581,13 +4563,13 @@
         <v>228667</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>164</v>
+        <v>307</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M6" s="7">
         <v>438</v>
@@ -4596,19 +4578,19 @@
         <v>456905</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>311</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>202</v>
@@ -4617,13 +4599,13 @@
         <v>197019</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H7" s="7">
         <v>346</v>
@@ -4632,13 +4614,13 @@
         <v>385126</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M7" s="7">
         <v>548</v>
@@ -4647,13 +4629,13 @@
         <v>582145</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4703,13 @@
         <v>617976</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H9" s="7">
         <v>491</v>
@@ -4736,13 +4718,13 @@
         <v>513870</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M9" s="7">
         <v>1071</v>
@@ -4751,19 +4733,19 @@
         <v>1131846</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>216</v>
+        <v>326</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>325</v>
+        <v>260</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>474</v>
@@ -4772,13 +4754,13 @@
         <v>503339</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>328</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>416</v>
@@ -4787,13 +4769,13 @@
         <v>428877</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M10" s="7">
         <v>890</v>
@@ -4802,19 +4784,19 @@
         <v>932216</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>565</v>
@@ -4823,10 +4805,10 @@
         <v>598694</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>336</v>
@@ -4838,13 +4820,13 @@
         <v>594650</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>95</v>
+        <v>337</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M11" s="7">
         <v>1142</v>
@@ -4853,19 +4835,19 @@
         <v>1193344</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>339</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>333</v>
@@ -4874,13 +4856,13 @@
         <v>356376</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H12" s="7">
         <v>424</v>
@@ -4889,13 +4871,13 @@
         <v>450903</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M12" s="7">
         <v>757</v>
@@ -4904,13 +4886,13 @@
         <v>807279</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,13 +4960,13 @@
         <v>155258</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H14" s="7">
         <v>128</v>
@@ -4993,13 +4975,13 @@
         <v>135721</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M14" s="7">
         <v>269</v>
@@ -5008,10 +4990,10 @@
         <v>290979</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>355</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>356</v>
@@ -5020,7 +5002,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>137</v>
@@ -5035,7 +5017,7 @@
         <v>358</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="H15" s="7">
         <v>130</v>
@@ -5050,7 +5032,7 @@
         <v>360</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>361</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7">
         <v>267</v>
@@ -5059,19 +5041,19 @@
         <v>282380</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>147</v>
@@ -5080,13 +5062,13 @@
         <v>160259</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H16" s="7">
         <v>162</v>
@@ -5095,7 +5077,7 @@
         <v>168531</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>366</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>367</v>
@@ -5122,7 +5104,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>76</v>
@@ -5146,13 +5128,13 @@
         <v>109551</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>375</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M17" s="7">
         <v>182</v>
@@ -5161,13 +5143,13 @@
         <v>193877</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5217,13 @@
         <v>956020</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H19" s="7">
         <v>813</v>
@@ -5250,13 +5232,13 @@
         <v>870401</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>86</v>
+        <v>385</v>
       </c>
       <c r="M19" s="7">
         <v>1715</v>
@@ -5265,19 +5247,19 @@
         <v>1826421</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>384</v>
+        <v>226</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>386</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>760</v>
@@ -5286,13 +5268,13 @@
         <v>796688</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>289</v>
+        <v>389</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H20" s="7">
         <v>690</v>
@@ -5301,13 +5283,13 @@
         <v>724271</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M20" s="7">
         <v>1450</v>
@@ -5316,19 +5298,19 @@
         <v>1520958</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>393</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>942</v>
@@ -5337,13 +5319,13 @@
         <v>987190</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H21" s="7">
         <v>947</v>
@@ -5352,13 +5334,13 @@
         <v>991848</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M21" s="7">
         <v>1889</v>
@@ -5367,19 +5349,19 @@
         <v>1979038</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>130</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>611</v>
@@ -5388,13 +5370,13 @@
         <v>637720</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H22" s="7">
         <v>876</v>
@@ -5403,13 +5385,13 @@
         <v>945580</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="M22" s="7">
         <v>1487</v>
@@ -5418,13 +5400,13 @@
         <v>1583300</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>406</v>
+        <v>52</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,7 +5462,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -5499,7 +5481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DCD88D-BFDF-457A-9229-D46EE7BE5A96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841BE231-F1E1-4A07-B190-93437A0F4870}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5516,7 +5498,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5623,13 +5605,13 @@
         <v>137048</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H4" s="7">
         <v>299</v>
@@ -5638,13 +5620,13 @@
         <v>180026</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>172</v>
+        <v>416</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>413</v>
+        <v>251</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M4" s="7">
         <v>473</v>
@@ -5653,19 +5635,19 @@
         <v>317075</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>158</v>
@@ -5674,13 +5656,13 @@
         <v>119837</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H5" s="7">
         <v>235</v>
@@ -5689,13 +5671,13 @@
         <v>127836</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M5" s="7">
         <v>393</v>
@@ -5704,19 +5686,19 @@
         <v>247673</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>428</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>157</v>
@@ -5725,13 +5707,13 @@
         <v>127377</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>427</v>
+        <v>269</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>428</v>
+        <v>171</v>
       </c>
       <c r="H6" s="7">
         <v>321</v>
@@ -5740,13 +5722,13 @@
         <v>184116</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>429</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>478</v>
@@ -5755,19 +5737,19 @@
         <v>311493</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>196</v>
@@ -5776,13 +5758,13 @@
         <v>152626</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>435</v>
+        <v>322</v>
       </c>
       <c r="H7" s="7">
         <v>552</v>
@@ -5791,13 +5773,13 @@
         <v>333064</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M7" s="7">
         <v>748</v>
@@ -5806,13 +5788,13 @@
         <v>485690</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,10 +5862,10 @@
         <v>731051</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>442</v>
+        <v>336</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>443</v>
@@ -5895,7 +5877,7 @@
         <v>607663</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>444</v>
@@ -5913,16 +5895,16 @@
         <v>446</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>255</v>
+        <v>447</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>496</v>
@@ -5931,10 +5913,10 @@
         <v>579256</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>449</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>450</v>
@@ -5952,7 +5934,7 @@
         <v>451</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>452</v>
       </c>
       <c r="M10" s="7">
         <v>1189</v>
@@ -5961,10 +5943,10 @@
         <v>1092779</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>453</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>454</v>
@@ -5973,7 +5955,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>449</v>
@@ -5997,13 +5979,13 @@
         <v>493734</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>457</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>458</v>
       </c>
       <c r="M11" s="7">
         <v>1129</v>
@@ -6012,7 +5994,7 @@
         <v>950174</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>458</v>
+        <v>334</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>459</v>
@@ -6024,7 +6006,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>415</v>
@@ -6036,10 +6018,10 @@
         <v>461</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>122</v>
+        <v>462</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>202</v>
+        <v>463</v>
       </c>
       <c r="H12" s="7">
         <v>776</v>
@@ -6048,13 +6030,13 @@
         <v>628349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>462</v>
+        <v>281</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M12" s="7">
         <v>1191</v>
@@ -6063,13 +6045,13 @@
         <v>1014335</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>259</v>
+        <v>362</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6137,13 +6119,13 @@
         <v>216237</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H14" s="7">
         <v>255</v>
@@ -6152,13 +6134,13 @@
         <v>194613</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>469</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M14" s="7">
         <v>458</v>
@@ -6167,19 +6149,19 @@
         <v>410850</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>471</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>472</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>177</v>
@@ -6188,13 +6170,13 @@
         <v>179572</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>473</v>
+        <v>101</v>
       </c>
       <c r="H15" s="7">
         <v>246</v>
@@ -6203,13 +6185,13 @@
         <v>172934</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>474</v>
+        <v>259</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="M15" s="7">
         <v>423</v>
@@ -6218,19 +6200,19 @@
         <v>352505</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>161</v>
@@ -6239,13 +6221,13 @@
         <v>145721</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H16" s="7">
         <v>250</v>
@@ -6254,13 +6236,13 @@
         <v>174532</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>483</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>484</v>
+        <v>21</v>
       </c>
       <c r="M16" s="7">
         <v>411</v>
@@ -6269,19 +6251,19 @@
         <v>320253</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>383</v>
+        <v>483</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>138</v>
@@ -6290,10 +6272,10 @@
         <v>129188</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>488</v>
@@ -6305,13 +6287,13 @@
         <v>168570</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="M17" s="7">
         <v>388</v>
@@ -6320,13 +6302,13 @@
         <v>297757</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>493</v>
+        <v>297</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6391,16 +6373,16 @@
         <v>1000</v>
       </c>
       <c r="D19" s="7">
-        <v>1084336</v>
+        <v>1084337</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>495</v>
+        <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H19" s="7">
         <v>1316</v>
@@ -6409,13 +6391,13 @@
         <v>982302</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>498</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>447</v>
       </c>
       <c r="M19" s="7">
         <v>2316</v>
@@ -6424,19 +6406,19 @@
         <v>2066639</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>500</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>831</v>
@@ -6445,13 +6427,13 @@
         <v>878664</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>497</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H20" s="7">
         <v>1174</v>
@@ -6460,13 +6442,13 @@
         <v>814293</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>505</v>
+        <v>451</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="M20" s="7">
         <v>2005</v>
@@ -6475,19 +6457,19 @@
         <v>1692957</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>503</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>767</v>
@@ -6496,13 +6478,13 @@
         <v>729537</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>510</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>358</v>
+        <v>506</v>
       </c>
       <c r="H21" s="7">
         <v>1251</v>
@@ -6511,13 +6493,13 @@
         <v>852383</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>511</v>
+        <v>87</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>512</v>
+        <v>199</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="M21" s="7">
         <v>2018</v>
@@ -6526,34 +6508,34 @@
         <v>1581920</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>749</v>
       </c>
       <c r="D22" s="7">
-        <v>667799</v>
+        <v>667800</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>300</v>
+        <v>457</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="H22" s="7">
         <v>1578</v>
@@ -6562,13 +6544,13 @@
         <v>1129983</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>520</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="M22" s="7">
         <v>2327</v>
@@ -6577,13 +6559,13 @@
         <v>1797782</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>272</v>
+        <v>515</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,7 +6577,7 @@
         <v>3347</v>
       </c>
       <c r="D23" s="7">
-        <v>3360337</v>
+        <v>3360338</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -6639,7 +6621,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/MCS12_SP_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{570F8A2D-2657-48D9-B57C-A52147FDA7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24D13F43-1564-4CEC-A8FA-F0DF8926CD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0B7CAA58-2E4D-4F81-A885-92B9359ACE1A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F818689D-D10E-44FA-88D3-97ABDBE32FDE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="532">
   <si>
     <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Cuartil 4</t>
+    <t>más de 56.6060</t>
   </si>
   <si>
     <t>19,96%</t>
@@ -101,7 +101,7 @@
     <t>20,62%</t>
   </si>
   <si>
-    <t>Cuartil 3</t>
+    <t>53.5791-56.6060</t>
   </si>
   <si>
     <t>27,53%</t>
@@ -131,7 +131,7 @@
     <t>28,46%</t>
   </si>
   <si>
-    <t>Cuartil 2</t>
+    <t>48.3889-53.5790</t>
   </si>
   <si>
     <t>25,41%</t>
@@ -161,7 +161,7 @@
     <t>26,13%</t>
   </si>
   <si>
-    <t>Cuartil 1</t>
+    <t>menos de 48.3888</t>
   </si>
   <si>
     <t>27,09%</t>
@@ -1280,319 +1280,361 @@
     <t>Población según los cuartiles de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
   </si>
   <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
   </si>
   <si>
     <t>20,17%</t>
   </si>
   <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
   </si>
   <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
   </si>
 </sst>
 </file>
@@ -2004,7 +2046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10EBACC-7DFA-4272-8F45-CB1942F97415}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E724829-6DCC-4761-914C-47EE63627C46}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2308,7 +2350,7 @@
         <v>691</v>
       </c>
       <c r="N7" s="7">
-        <v>709251</v>
+        <v>709250</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>45</v>
@@ -2359,7 +2401,7 @@
         <v>2329</v>
       </c>
       <c r="N8" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -2382,7 +2424,7 @@
         <v>415</v>
       </c>
       <c r="D9" s="7">
-        <v>424754</v>
+        <v>424755</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2586,7 +2628,7 @@
         <v>1649</v>
       </c>
       <c r="D13" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
@@ -2947,7 +2989,7 @@
         <v>1067</v>
       </c>
       <c r="D20" s="7">
-        <v>1085000</v>
+        <v>1084999</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>127</v>
@@ -2977,7 +3019,7 @@
         <v>2054</v>
       </c>
       <c r="N20" s="7">
-        <v>2091940</v>
+        <v>2091941</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>132</v>
@@ -2998,7 +3040,7 @@
         <v>787</v>
       </c>
       <c r="D21" s="7">
-        <v>805574</v>
+        <v>805573</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>134</v>
@@ -3079,7 +3121,7 @@
         <v>1463</v>
       </c>
       <c r="N22" s="7">
-        <v>1507676</v>
+        <v>1507677</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>145</v>
@@ -3100,7 +3142,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -3115,7 +3157,7 @@
         <v>3297</v>
       </c>
       <c r="I23" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -3130,7 +3172,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
@@ -3163,7 +3205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93B33AC-0CBD-4F2A-83B5-027F49E9D6C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09EA717-57FB-42AB-93A7-8BD5E7962524}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3452,7 +3494,7 @@
         <v>499</v>
       </c>
       <c r="I7" s="7">
-        <v>534607</v>
+        <v>534608</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>179</v>
@@ -3503,7 +3545,7 @@
         <v>1247</v>
       </c>
       <c r="I8" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -4032,7 +4074,7 @@
         <v>850</v>
       </c>
       <c r="N18" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -4322,7 +4364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD42A1C-8211-411D-BA6D-DF7A3C5A93B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E77E0F0-AEC6-4BA6-BB93-8C3BB105DCAC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5038,7 +5080,7 @@
         <v>267</v>
       </c>
       <c r="N15" s="7">
-        <v>282380</v>
+        <v>282381</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>361</v>
@@ -5191,7 +5233,7 @@
         <v>1027</v>
       </c>
       <c r="N18" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -5481,7 +5523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841BE231-F1E1-4A07-B190-93437A0F4870}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E7E7D5-98C9-4C9F-817C-DBE34CB2C4C6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5602,7 +5644,7 @@
         <v>174</v>
       </c>
       <c r="D4" s="7">
-        <v>137048</v>
+        <v>131198</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>413</v>
@@ -5611,37 +5653,37 @@
         <v>414</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>415</v>
+        <v>239</v>
       </c>
       <c r="H4" s="7">
         <v>299</v>
       </c>
       <c r="I4" s="7">
-        <v>180026</v>
+        <v>165193</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>417</v>
+        <v>134</v>
       </c>
       <c r="M4" s="7">
         <v>473</v>
       </c>
       <c r="N4" s="7">
-        <v>317075</v>
+        <v>296391</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>419</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>420</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,46 +5695,46 @@
         <v>158</v>
       </c>
       <c r="D5" s="7">
-        <v>119837</v>
+        <v>114576</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H5" s="7">
         <v>235</v>
       </c>
       <c r="I5" s="7">
-        <v>127836</v>
+        <v>118644</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M5" s="7">
         <v>393</v>
       </c>
       <c r="N5" s="7">
-        <v>247673</v>
+        <v>233220</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>429</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,37 +5746,37 @@
         <v>157</v>
       </c>
       <c r="D6" s="7">
-        <v>127377</v>
+        <v>123705</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>430</v>
+        <v>328</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>269</v>
+        <v>427</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>171</v>
+        <v>428</v>
       </c>
       <c r="H6" s="7">
         <v>321</v>
       </c>
       <c r="I6" s="7">
-        <v>184116</v>
+        <v>167265</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>478</v>
       </c>
       <c r="N6" s="7">
-        <v>311493</v>
+        <v>290969</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>432</v>
@@ -5755,22 +5797,22 @@
         <v>196</v>
       </c>
       <c r="D7" s="7">
-        <v>152626</v>
+        <v>140917</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H7" s="7">
         <v>552</v>
       </c>
       <c r="I7" s="7">
-        <v>333064</v>
+        <v>294454</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>437</v>
@@ -5785,16 +5827,16 @@
         <v>748</v>
       </c>
       <c r="N7" s="7">
-        <v>485690</v>
+        <v>435370</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>440</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,7 +5848,7 @@
         <v>685</v>
       </c>
       <c r="D8" s="7">
-        <v>536887</v>
+        <v>510396</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -5821,7 +5863,7 @@
         <v>1407</v>
       </c>
       <c r="I8" s="7">
-        <v>825043</v>
+        <v>745556</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -5836,7 +5878,7 @@
         <v>2092</v>
       </c>
       <c r="N8" s="7">
-        <v>1361930</v>
+        <v>1255951</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -5859,43 +5901,43 @@
         <v>623</v>
       </c>
       <c r="D9" s="7">
-        <v>731051</v>
+        <v>720109</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H9" s="7">
         <v>762</v>
       </c>
       <c r="I9" s="7">
-        <v>607663</v>
+        <v>583091</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>41</v>
+        <v>310</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>445</v>
+        <v>64</v>
       </c>
       <c r="M9" s="7">
         <v>1385</v>
       </c>
       <c r="N9" s="7">
-        <v>1338714</v>
+        <v>1303200</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>447</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>448</v>
@@ -5910,46 +5952,46 @@
         <v>496</v>
       </c>
       <c r="D10" s="7">
-        <v>579256</v>
+        <v>762558</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>449</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H10" s="7">
         <v>693</v>
       </c>
       <c r="I10" s="7">
-        <v>513523</v>
+        <v>466899</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M10" s="7">
         <v>1189</v>
       </c>
       <c r="N10" s="7">
-        <v>1092779</v>
+        <v>1229457</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>453</v>
+        <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>455</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,46 +6003,46 @@
         <v>449</v>
       </c>
       <c r="D11" s="7">
-        <v>456439</v>
+        <v>435912</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>92</v>
+        <v>457</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H11" s="7">
         <v>680</v>
       </c>
       <c r="I11" s="7">
-        <v>493734</v>
+        <v>506844</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="M11" s="7">
         <v>1129</v>
       </c>
       <c r="N11" s="7">
-        <v>950174</v>
+        <v>942755</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>334</v>
+        <v>462</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6012,46 +6054,46 @@
         <v>415</v>
       </c>
       <c r="D12" s="7">
-        <v>385986</v>
+        <v>362967</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H12" s="7">
         <v>776</v>
       </c>
       <c r="I12" s="7">
-        <v>628349</v>
+        <v>675263</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>281</v>
+        <v>468</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="M12" s="7">
         <v>1191</v>
       </c>
       <c r="N12" s="7">
-        <v>1014335</v>
+        <v>1038230</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>362</v>
+        <v>470</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>467</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,7 +6105,7 @@
         <v>1983</v>
       </c>
       <c r="D13" s="7">
-        <v>2152732</v>
+        <v>2281546</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
@@ -6078,7 +6120,7 @@
         <v>2911</v>
       </c>
       <c r="I13" s="7">
-        <v>2243270</v>
+        <v>2232096</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>49</v>
@@ -6093,7 +6135,7 @@
         <v>4894</v>
       </c>
       <c r="N13" s="7">
-        <v>4396002</v>
+        <v>4513642</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
@@ -6116,46 +6158,46 @@
         <v>203</v>
       </c>
       <c r="D14" s="7">
-        <v>216237</v>
+        <v>206588</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>473</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="H14" s="7">
         <v>255</v>
       </c>
       <c r="I14" s="7">
-        <v>194613</v>
+        <v>180476</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>476</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="M14" s="7">
         <v>458</v>
       </c>
       <c r="N14" s="7">
-        <v>410850</v>
+        <v>387064</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6167,46 +6209,46 @@
         <v>177</v>
       </c>
       <c r="D15" s="7">
-        <v>179572</v>
+        <v>173040</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>408</v>
+        <v>480</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>101</v>
+        <v>482</v>
       </c>
       <c r="H15" s="7">
         <v>246</v>
       </c>
       <c r="I15" s="7">
-        <v>172934</v>
+        <v>162833</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>259</v>
+        <v>483</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>146</v>
+        <v>484</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>475</v>
+        <v>428</v>
       </c>
       <c r="M15" s="7">
         <v>423</v>
       </c>
       <c r="N15" s="7">
-        <v>352505</v>
+        <v>335874</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>418</v>
+        <v>486</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6218,46 +6260,46 @@
         <v>161</v>
       </c>
       <c r="D16" s="7">
-        <v>145721</v>
+        <v>138523</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="H16" s="7">
         <v>250</v>
       </c>
       <c r="I16" s="7">
-        <v>174532</v>
+        <v>158999</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>21</v>
+        <v>493</v>
       </c>
       <c r="M16" s="7">
         <v>411</v>
       </c>
       <c r="N16" s="7">
-        <v>320253</v>
+        <v>297522</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,46 +6311,46 @@
         <v>138</v>
       </c>
       <c r="D17" s="7">
-        <v>129188</v>
+        <v>126309</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>488</v>
+        <v>435</v>
       </c>
       <c r="H17" s="7">
         <v>250</v>
       </c>
       <c r="I17" s="7">
-        <v>168570</v>
+        <v>155280</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>499</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>489</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="M17" s="7">
         <v>388</v>
       </c>
       <c r="N17" s="7">
-        <v>297757</v>
+        <v>281589</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6320,7 +6362,7 @@
         <v>679</v>
       </c>
       <c r="D18" s="7">
-        <v>670718</v>
+        <v>644461</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -6335,7 +6377,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>710648</v>
+        <v>657589</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
@@ -6350,7 +6392,7 @@
         <v>1680</v>
       </c>
       <c r="N18" s="7">
-        <v>1381366</v>
+        <v>1302050</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -6373,46 +6415,46 @@
         <v>1000</v>
       </c>
       <c r="D19" s="7">
-        <v>1084337</v>
+        <v>1057895</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>492</v>
+        <v>398</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="H19" s="7">
         <v>1316</v>
       </c>
       <c r="I19" s="7">
-        <v>982302</v>
+        <v>928760</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="M19" s="7">
         <v>2316</v>
       </c>
       <c r="N19" s="7">
-        <v>2066639</v>
+        <v>1986655</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>507</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6424,46 +6466,46 @@
         <v>831</v>
       </c>
       <c r="D20" s="7">
-        <v>878664</v>
+        <v>1050175</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>498</v>
+        <v>168</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="H20" s="7">
         <v>1174</v>
       </c>
       <c r="I20" s="7">
-        <v>814293</v>
+        <v>748376</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>451</v>
+        <v>512</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="M20" s="7">
         <v>2005</v>
       </c>
       <c r="N20" s="7">
-        <v>1692957</v>
+        <v>1798551</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>503</v>
+        <v>459</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,46 +6517,46 @@
         <v>767</v>
       </c>
       <c r="D21" s="7">
-        <v>729537</v>
+        <v>698140</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>505</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>516</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="H21" s="7">
         <v>1251</v>
       </c>
       <c r="I21" s="7">
-        <v>852383</v>
+        <v>833107</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>87</v>
+        <v>518</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>199</v>
+        <v>519</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="M21" s="7">
         <v>2018</v>
       </c>
       <c r="N21" s="7">
-        <v>1581920</v>
+        <v>1531247</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6526,46 +6568,46 @@
         <v>749</v>
       </c>
       <c r="D22" s="7">
-        <v>667800</v>
+        <v>630193</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>457</v>
+        <v>525</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>512</v>
+        <v>200</v>
       </c>
       <c r="H22" s="7">
         <v>1578</v>
       </c>
       <c r="I22" s="7">
-        <v>1129983</v>
+        <v>1124997</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>290</v>
+        <v>527</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="M22" s="7">
         <v>2327</v>
       </c>
       <c r="N22" s="7">
-        <v>1797782</v>
+        <v>1755189</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6577,7 +6619,7 @@
         <v>3347</v>
       </c>
       <c r="D23" s="7">
-        <v>3360338</v>
+        <v>3436403</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -6592,7 +6634,7 @@
         <v>5319</v>
       </c>
       <c r="I23" s="7">
-        <v>3778960</v>
+        <v>3635240</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -6607,7 +6649,7 @@
         <v>8666</v>
       </c>
       <c r="N23" s="7">
-        <v>7139298</v>
+        <v>7071643</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
